--- a/総合テスト_2.xlsx
+++ b/総合テスト_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A164162E-4641-4656-A9BB-EE46F68EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4B8608-A8BA-478E-BE13-88616C2F8924}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{A164162E-4641-4656-A9BB-EE46F68EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6445D78-F63D-4ACB-81C9-BE0B3EFC4A7F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="422">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -3416,28 +3416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録画面からアカウント登録完了画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント登録画面でregist_complete.phpで検索</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -3448,38 +3426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録確認画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録完了画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント削除されたアカウントがもう一度アカウント削除できないようになっているか</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -3493,59 +3439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録確認画面から「前に戻る」を押さず、アカウント登録画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録後、アカウント登録確認画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録確認画面の「登録する」以外でアカウント登録されない</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -3568,37 +3461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録確認画面の「登録する」以外でアカウント登録完了画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント登録画面で全項目に値を入れる</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -3631,35 +3493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント登録確認画面でregist.phpで検索する</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント登録完了後、regist_confirm.phpで検索</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -3715,51 +3548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント削除確認画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除完了画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント更新画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.ログイン画面でindex.phpを検索</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -3925,32 +3713,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント情報の分からいURLとなっている</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント一覧からアカウント削除画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント一覧画面で、regist_complete.phpを入力</t>
     <rPh sb="7" eb="9">
       <t>イチラン</t>
@@ -4042,72 +3804,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント削除画面から「確認する」ボタン以外でアカウント削除確認画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除確認画面から「削除する」ボタン以外で、アカウント削除完了画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除はされていない</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アカウント削除画面の「確認する」ボタンを押さず、</t>
     <rPh sb="7" eb="9">
       <t>サクジョ</t>
@@ -4154,31 +3850,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録で「確認する」ボタンを押さずにアカウント登録確認画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン情報を入力した状態で、リロードを押すと入力した値がリセットされる</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -4603,25 +4274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント更新完了画面でリロードした際、エラーが起こらない</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アカウント更新確認画面の「更新する」を押す</t>
     <rPh sb="7" eb="9">
       <t>コウシン</t>
@@ -4799,28 +4451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント削除完了画面でリロードした際、エラーが起こらず、削除ができている</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.アカウント削除確認画面で「削除する」をおす</t>
     <rPh sb="7" eb="9">
       <t>サクジョ</t>
@@ -5188,25 +4818,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント削除確認画面でブラウザの戻るを押す</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4.アカウント削除確認画面に遷移</t>
     <rPh sb="7" eb="9">
       <t>サクジョ</t>
@@ -5322,56 +4933,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント一覧画面から、「削除」以外でアカウント削除画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント一覧画面から、「更新」以外でアカウント更新画面に遷移しない</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント一覧画面から、アカウント削除確認画面に遷移するとエラーが表示される</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -6006,6 +5567,817 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが起こる</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前のキャッシュでログインできてしまう</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前の管理者のキャッシュで表示できる</t>
+    <rPh sb="0" eb="2">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ができてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面でリロードした際、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除画面から「確認する」ボタン以外でアカウント削除確認画面に遷移したさいエラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面から「削除する」ボタン以外で、アカウント削除完了画面に遷移したさいエラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除はされていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面でリロードした際、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で「確認する」ボタンを押さずにアカウント登録確認画面に遷移したさい、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面からアカウント登録完了画面に遷移したさいエラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の「前に戻る」を押さず、URL直打ちでアカウント登録画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録後、URL直打ちでアカウント登録確認画面に遷移したさいエラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面の「登録する」以外でアカウント登録完了画面に遷移したさい、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントは登録されず、エラーが表示される</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした情報を削除した際、TOPページでエラーが表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除完了画面の「TOPページへ戻る」をおす</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能が操作できる</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした情報で、権限を一般に変更した際、TOPページに「アカウント登録」「アカウント一覧」が表示されない</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページに「アカウント登録」「アカウント一覧」が表示されない</t>
+  </si>
+  <si>
+    <t>3.アカウント更新完了画面の「TOPページへ戻る」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.TOPページへ遷移</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からURL直打ちでアカウント更新完了画面に遷移した際、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新画面からURL直打ちでアカウント更新確認画面に遷移した際、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新画面からURL直打ちでアカウント更新完了画面に遷移した際、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント更新画面でupdate_confirm.phpで検索</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント更新画面でupdate_complete.phpで検索</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「確認する」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録確認画面でregist.phpで検索する</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データは更新されていない</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からURL直打ちでアカウント更新画面に遷移した際、エラーは表示されない</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが表示されない</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント更新画面で「確認する」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新確認画面でupdate_complete.phpで検索</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント更新画面で「確認する」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新確認画面でupdate.phpで検索</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?id=だとエラーが表示されない</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面から、「削除」以外でアカウント削除画面に遷移したさい、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面から、「更新」以外でアカウント更新画面に遷移したさい、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?id=だとエラーが表示されない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント削除確認画面でdelete.phpで検索</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からURL直打ちでアカウント削除画面に戻ったさい、エラーが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョクウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除完了画面でブラウザの戻るを押す</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6066,7 +6438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6124,13 +6496,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6164,14 +6547,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="248">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -8947,28 +9376,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -9897,32 +10304,32 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I30" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="246"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="245"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="244"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="243"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="242"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="241"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="240"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="239"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="238"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="246"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="245"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="244"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="243"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="242"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="241"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="240"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="239"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D550E851-54B2-4ED4-9197-A3D138643C67}" name="テーブル3913" displayName="テーブル3913" ref="A12:I17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D550E851-54B2-4ED4-9197-A3D138643C67}" name="テーブル3913" displayName="テーブル3913" ref="A12:I17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="141">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FB0478B8-1D1F-4E35-8EE7-2A629F1C92E5}" name="項目番号" headerRowDxfId="138" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{CB4DA40D-8C90-4F6B-AB95-23A5D303EF01}" name="大項目" headerRowDxfId="136" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{42E5E060-FF5C-4ADD-ABDE-BA7386111922}" name="列3" headerRowDxfId="134" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{7BA5E83E-FB34-4406-8289-890E8D3A3A0A}" name="確認内容" headerRowDxfId="132" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{778CF268-4739-4BC7-801E-A300BD8CB2C2}" name="操作手順" headerRowDxfId="130" dataDxfId="129"/>
-    <tableColumn id="6" xr3:uid="{709DA5C7-452B-4845-AB24-6C0F6C8684F1}" name="期待値" headerRowDxfId="128" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{CA244BBF-7843-49F5-B12D-CA5DD69E3869}" name="実施日" headerRowDxfId="126" dataDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{B5A8B03D-1563-4160-812F-C2FC92C4B673}" name="実施結果" headerRowDxfId="124" dataDxfId="123"/>
-    <tableColumn id="9" xr3:uid="{9E500E9A-EEF9-4039-AD34-40763B89FA07}" name="備考" headerRowDxfId="122" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{FB0478B8-1D1F-4E35-8EE7-2A629F1C92E5}" name="項目番号" headerRowDxfId="140" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{CB4DA40D-8C90-4F6B-AB95-23A5D303EF01}" name="大項目" headerRowDxfId="138" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{42E5E060-FF5C-4ADD-ABDE-BA7386111922}" name="列3" headerRowDxfId="136" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{7BA5E83E-FB34-4406-8289-890E8D3A3A0A}" name="確認内容" headerRowDxfId="134" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{778CF268-4739-4BC7-801E-A300BD8CB2C2}" name="操作手順" headerRowDxfId="132" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{709DA5C7-452B-4845-AB24-6C0F6C8684F1}" name="期待値" headerRowDxfId="130" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{CA244BBF-7843-49F5-B12D-CA5DD69E3869}" name="実施日" headerRowDxfId="128" dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{B5A8B03D-1563-4160-812F-C2FC92C4B673}" name="実施結果" headerRowDxfId="126" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{9E500E9A-EEF9-4039-AD34-40763B89FA07}" name="備考" headerRowDxfId="124" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9931,32 +10338,32 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{92EE8A66-26C5-4510-A2C8-79987B9EA570}" name="テーブル214" displayName="テーブル214" ref="A7:I46" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9DCC337B-1722-43E3-A699-574A84A90424}" name="項目番号" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{96BEEB0E-68A8-40BD-A9A8-77EFC9EC6E0A}" name="大項目" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{B310C236-5386-4D30-BBCC-088BD10C568A}" name="列3" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{6566F237-6299-47AE-9D5A-03233EB07695}" name="確認内容" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{58EB58B2-F812-4738-8D2F-16B65681A78F}" name="操作手順" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{BEC8CC87-050F-40A7-B877-95A5ABFB2CCF}" name="期待値" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{8933C692-AC07-4752-9FD0-D9F6A2C525BE}" name="実施日" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{52627A74-5266-4214-8294-FAECD8823D89}" name="実施結果" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{F28B0484-AF16-4CED-B594-B0CCA0126E20}" name="備考" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{9DCC337B-1722-43E3-A699-574A84A90424}" name="項目番号" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{96BEEB0E-68A8-40BD-A9A8-77EFC9EC6E0A}" name="大項目" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{B310C236-5386-4D30-BBCC-088BD10C568A}" name="列3" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{6566F237-6299-47AE-9D5A-03233EB07695}" name="確認内容" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{58EB58B2-F812-4738-8D2F-16B65681A78F}" name="操作手順" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{BEC8CC87-050F-40A7-B877-95A5ABFB2CCF}" name="期待値" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{8933C692-AC07-4752-9FD0-D9F6A2C525BE}" name="実施日" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{52627A74-5266-4214-8294-FAECD8823D89}" name="実施結果" dataDxfId="115"/>
+    <tableColumn id="9" xr3:uid="{F28B0484-AF16-4CED-B594-B0CCA0126E20}" name="備考" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{117920D0-B5E8-4857-AE14-795F1DE0793A}" name="テーブル315" displayName="テーブル315" ref="A47:I51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{117920D0-B5E8-4857-AE14-795F1DE0793A}" name="テーブル315" displayName="テーブル315" ref="A47:I51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="113">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AC234E38-6B35-451E-87F0-F07736F5A627}" name="項目番号" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{FE9A97C2-5E84-47D5-9C46-B975EA9D30C4}" name="大項目" headerRowDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{A5D50864-42F1-4E0D-8EA1-742D5C7463D8}" name="列3" headerRowDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{B951040F-4440-4986-85AE-207BB1E7E023}" name="確認内容" headerRowDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{4933360D-212F-4F4C-8CFC-0674F0DA0CA5}" name="操作手順" headerRowDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{46C112A4-5C55-4974-BF9B-4826A8D1B120}" name="期待値" headerRowDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{75D33E42-0F38-4D13-8E85-E9DB0D6A055C}" name="実施日" headerRowDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{D40E49CC-D877-475A-B374-2FB511D22038}" name="実施結果" headerRowDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{330CCD0D-7F5C-4B28-89B7-0A351E8A9EFC}" name="備考" headerRowDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{AC234E38-6B35-451E-87F0-F07736F5A627}" name="項目番号" headerRowDxfId="112" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{FE9A97C2-5E84-47D5-9C46-B975EA9D30C4}" name="大項目" headerRowDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{A5D50864-42F1-4E0D-8EA1-742D5C7463D8}" name="列3" headerRowDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{B951040F-4440-4986-85AE-207BB1E7E023}" name="確認内容" headerRowDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{4933360D-212F-4F4C-8CFC-0674F0DA0CA5}" name="操作手順" headerRowDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{46C112A4-5C55-4974-BF9B-4826A8D1B120}" name="期待値" headerRowDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{75D33E42-0F38-4D13-8E85-E9DB0D6A055C}" name="実施日" headerRowDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{D40E49CC-D877-475A-B374-2FB511D22038}" name="実施結果" headerRowDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{330CCD0D-7F5C-4B28-89B7-0A351E8A9EFC}" name="備考" headerRowDxfId="103"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9965,32 +10372,32 @@
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4F311758-1114-41AC-B80C-CECFA819DA58}" name="テーブル21416" displayName="テーブル21416" ref="A7:I46" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9D68D35-3C29-4958-A315-7B7DB1D5451E}" name="項目番号" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{33AAA2BD-7FC5-420B-9150-67AE959127FD}" name="大項目" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{9B3D24E1-BAF2-492A-A4D7-39EA75DAB7BA}" name="列3" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{4F60D2EB-9AF7-4D47-BA35-8992952B4880}" name="確認内容" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{89F65612-7B7C-437A-8DB9-8D7FAA10244A}" name="操作手順" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{084C3890-52E5-4CED-BFDC-AF03505DEEB8}" name="期待値" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{647469A3-FF2F-4947-887B-466D3A588AA2}" name="実施日" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{84379E9C-B30A-4CF6-87D7-BE4E68B2B804}" name="実施結果" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{C4DEF5AB-808C-4E4E-A76E-5B0D8262EA4D}" name="備考" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{F9D68D35-3C29-4958-A315-7B7DB1D5451E}" name="項目番号" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{33AAA2BD-7FC5-420B-9150-67AE959127FD}" name="大項目" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{9B3D24E1-BAF2-492A-A4D7-39EA75DAB7BA}" name="列3" dataDxfId="100"/>
+    <tableColumn id="4" xr3:uid="{4F60D2EB-9AF7-4D47-BA35-8992952B4880}" name="確認内容" dataDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{89F65612-7B7C-437A-8DB9-8D7FAA10244A}" name="操作手順" dataDxfId="98"/>
+    <tableColumn id="6" xr3:uid="{084C3890-52E5-4CED-BFDC-AF03505DEEB8}" name="期待値" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{647469A3-FF2F-4947-887B-466D3A588AA2}" name="実施日" dataDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{84379E9C-B30A-4CF6-87D7-BE4E68B2B804}" name="実施結果" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{C4DEF5AB-808C-4E4E-A76E-5B0D8262EA4D}" name="備考" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{795428E1-E854-4DC7-8C4F-2E05D122C470}" name="テーブル31517" displayName="テーブル31517" ref="A47:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{795428E1-E854-4DC7-8C4F-2E05D122C470}" name="テーブル31517" displayName="テーブル31517" ref="A47:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="93">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{894BB36D-A906-4CA2-80FC-0147043D99B8}" name="項目番号" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{648393ED-B4FC-48DB-A18B-ACE7F1848F7A}" name="大項目" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{DECCA3A4-9A60-41B3-9D94-F381A925A5F8}" name="列3" headerRowDxfId="86" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{76A087F1-E4F1-4E2C-ACAE-7BC7A280B708}" name="確認内容" headerRowDxfId="84" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{6BE08CD5-AE09-4DC7-B197-F1B9261B0B74}" name="操作手順" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{859F9FFC-3ED9-4FAB-B456-BE0E756451FC}" name="期待値" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{C6F7D79F-3C31-4AD7-B9A8-D34553111841}" name="実施日" headerRowDxfId="78" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{6B8639B3-B3E7-4DB1-8F69-285BE4A9796A}" name="実施結果" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{4FAFE7AC-D44C-4563-9A1D-3DF2374A0636}" name="備考" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{894BB36D-A906-4CA2-80FC-0147043D99B8}" name="項目番号" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{648393ED-B4FC-48DB-A18B-ACE7F1848F7A}" name="大項目" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{DECCA3A4-9A60-41B3-9D94-F381A925A5F8}" name="列3" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{76A087F1-E4F1-4E2C-ACAE-7BC7A280B708}" name="確認内容" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{6BE08CD5-AE09-4DC7-B197-F1B9261B0B74}" name="操作手順" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{859F9FFC-3ED9-4FAB-B456-BE0E756451FC}" name="期待値" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{C6F7D79F-3C31-4AD7-B9A8-D34553111841}" name="実施日" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{6B8639B3-B3E7-4DB1-8F69-285BE4A9796A}" name="実施結果" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{4FAFE7AC-D44C-4563-9A1D-3DF2374A0636}" name="備考" headerRowDxfId="76" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9999,32 +10406,32 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{26A45C71-42F6-442A-9322-A4EDFEEEFC8B}" name="テーブル2818" displayName="テーブル2818" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BA911E6F-D3D9-458C-9CA6-4B92B8F11D6E}" name="項目番号" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{F4FF0E24-D236-4EF3-B9A6-DE071048B667}" name="大項目" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{8245AC3B-D849-4BF3-92EB-EE5969BC03CB}" name="列3" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{2BDD7CAB-79F5-4C6C-9160-B9BEC441EEDD}" name="確認内容" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{734A262C-BE4E-4552-8D88-2E782EC5A521}" name="操作手順" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{BEC80A4A-7B56-41C8-B6F7-021DA2CCFA7D}" name="期待値" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{95D4B99B-387D-4BE6-9A27-E75A41CDEBC2}" name="実施日" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{E3370ABC-D356-442F-8936-69033A22A3C5}" name="実施結果" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{D1CD7051-94FF-41B4-B154-82392AD2B8E1}" name="備考" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{BA911E6F-D3D9-458C-9CA6-4B92B8F11D6E}" name="項目番号" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{F4FF0E24-D236-4EF3-B9A6-DE071048B667}" name="大項目" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{8245AC3B-D849-4BF3-92EB-EE5969BC03CB}" name="列3" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{2BDD7CAB-79F5-4C6C-9160-B9BEC441EEDD}" name="確認内容" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{734A262C-BE4E-4552-8D88-2E782EC5A521}" name="操作手順" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{BEC80A4A-7B56-41C8-B6F7-021DA2CCFA7D}" name="期待値" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{95D4B99B-387D-4BE6-9A27-E75A41CDEBC2}" name="実施日" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{E3370ABC-D356-442F-8936-69033A22A3C5}" name="実施結果" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{D1CD7051-94FF-41B4-B154-82392AD2B8E1}" name="備考" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D4684996-0139-4300-AD34-B21965269EA5}" name="テーブル3919" displayName="テーブル3919" ref="A12:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D4684996-0139-4300-AD34-B21965269EA5}" name="テーブル3919" displayName="テーブル3919" ref="A12:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="65">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="62" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="64" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="55"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10033,32 +10440,32 @@
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D68400FE-558F-414E-AC3F-9641EDFD3A79}" name="テーブル21022" displayName="テーブル21022" ref="A7:I49" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{18798C31-FD6A-4A2E-9045-5E929F34EF2B}" name="項目番号" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{1997B3AC-F1FC-4E4D-B758-44F58C9110AB}" name="大項目" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{514BF36B-9B6E-4CE5-9E69-3DAE1D03E175}" name="列3" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{0EE019BC-4E27-4EDE-A931-6C65E50F754A}" name="確認内容" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{71ACD601-E5F5-425B-953C-91B389BBCF4C}" name="操作手順" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{09FFAA6B-E021-4544-8905-99E8624449D8}" name="期待値" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{7E1A6883-6BFD-4245-8DDF-BF12CE6E4F44}" name="実施日" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{0D51FD17-E0B6-4057-B45D-53E20FBFE2B3}" name="実施結果" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{7EF0B136-CA63-438D-A42D-897B6CCCFD1F}" name="備考" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{18798C31-FD6A-4A2E-9045-5E929F34EF2B}" name="項目番号" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{1997B3AC-F1FC-4E4D-B758-44F58C9110AB}" name="大項目" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{514BF36B-9B6E-4CE5-9E69-3DAE1D03E175}" name="列3" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{0EE019BC-4E27-4EDE-A931-6C65E50F754A}" name="確認内容" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{71ACD601-E5F5-425B-953C-91B389BBCF4C}" name="操作手順" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{09FFAA6B-E021-4544-8905-99E8624449D8}" name="期待値" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{7E1A6883-6BFD-4245-8DDF-BF12CE6E4F44}" name="実施日" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{0D51FD17-E0B6-4057-B45D-53E20FBFE2B3}" name="実施結果" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{7EF0B136-CA63-438D-A42D-897B6CCCFD1F}" name="備考" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E25D1CD9-AB27-4D1A-AEE9-7A7255336AD9}" name="テーブル31123" displayName="テーブル31123" ref="A50:I54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E25D1CD9-AB27-4D1A-AEE9-7A7255336AD9}" name="テーブル31123" displayName="テーブル31123" ref="A50:I54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1DE8F91D-C101-45FF-BED3-33B230AA82A1}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{4692C58C-BD36-4DDC-BCE6-D1C06CE897C5}" name="大項目" headerRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{1D4B0655-5093-47D6-8C92-C01DD3B2F164}" name="列3" headerRowDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{F3706C9A-7E7F-43D1-B9BB-19A9F656DB63}" name="確認内容" headerRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{C3993256-81B2-418E-935C-50AD042A05CB}" name="操作手順" headerRowDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{B77CA380-A406-4786-A21E-8B8652DD0F8F}" name="期待値" headerRowDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{18E5C3CA-313A-46EA-AA8D-0D425B9E1FE1}" name="実施日" headerRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{69BC504E-F659-4CAE-BDBD-FD3971DA1796}" name="実施結果" headerRowDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{FC7FFEA9-9C5E-4EBD-B5B3-A6683E1884C2}" name="備考" headerRowDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{1DE8F91D-C101-45FF-BED3-33B230AA82A1}" name="項目番号" headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{4692C58C-BD36-4DDC-BCE6-D1C06CE897C5}" name="大項目" headerRowDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{1D4B0655-5093-47D6-8C92-C01DD3B2F164}" name="列3" headerRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{F3706C9A-7E7F-43D1-B9BB-19A9F656DB63}" name="確認内容" headerRowDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{C3993256-81B2-418E-935C-50AD042A05CB}" name="操作手順" headerRowDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{B77CA380-A406-4786-A21E-8B8652DD0F8F}" name="期待値" headerRowDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{18E5C3CA-313A-46EA-AA8D-0D425B9E1FE1}" name="実施日" headerRowDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{69BC504E-F659-4CAE-BDBD-FD3971DA1796}" name="実施結果" headerRowDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{FC7FFEA9-9C5E-4EBD-B5B3-A6683E1884C2}" name="備考" headerRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10067,75 +10474,75 @@
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A8B6C67B-F19F-45F0-9044-D117CC2573A0}" name="テーブル281220" displayName="テーブル281220" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{60D3824F-E3FC-4B7C-95E9-89772A150DCA}" name="項目番号" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{57CB82D1-7FE1-4EBB-A31E-5D93135B4C16}" name="大項目" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{D6F62A87-DF1C-4C82-B65C-753311BAB6F9}" name="列3" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{4FAB426E-2733-4C1C-B11B-167182340E03}" name="確認内容" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{8A1056D9-E6DD-4C4F-8C66-13F7C2BC6F09}" name="操作手順" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{8FD79C11-4ADE-4D6E-B397-BE527AA97FF5}" name="期待値" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{48FE1BDE-1D57-4A6F-A1F8-2251639BD1D4}" name="実施日" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{FC5D6BA7-636D-4E6F-BBBB-9C78B2C641D6}" name="実施結果" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{336518F5-BFDC-46DF-911F-041F96988426}" name="備考" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{60D3824F-E3FC-4B7C-95E9-89772A150DCA}" name="項目番号" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{57CB82D1-7FE1-4EBB-A31E-5D93135B4C16}" name="大項目" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{D6F62A87-DF1C-4C82-B65C-753311BAB6F9}" name="列3" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{4FAB426E-2733-4C1C-B11B-167182340E03}" name="確認内容" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{8A1056D9-E6DD-4C4F-8C66-13F7C2BC6F09}" name="操作手順" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{8FD79C11-4ADE-4D6E-B397-BE527AA97FF5}" name="期待値" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{48FE1BDE-1D57-4A6F-A1F8-2251639BD1D4}" name="実施日" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{FC5D6BA7-636D-4E6F-BBBB-9C78B2C641D6}" name="実施結果" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{336518F5-BFDC-46DF-911F-041F96988426}" name="備考" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A34:I40" headerRowCount="0" totalsRowShown="0" headerRowDxfId="237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A34:I40" headerRowCount="0" totalsRowShown="0" headerRowDxfId="238">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="236" dataDxfId="235"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="234" dataDxfId="233"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="232" dataDxfId="231"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="230" dataDxfId="229"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="228" dataDxfId="227"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="226" dataDxfId="225"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="224" dataDxfId="223"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="222" dataDxfId="221"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="220" dataDxfId="219"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="237" dataDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="235" dataDxfId="234"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="233" dataDxfId="232"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="231" dataDxfId="230"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="229" dataDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="227" dataDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="225" dataDxfId="224"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="223" dataDxfId="222"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="221" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6C4A35CE-5C20-452B-821C-4B89CE16C0EF}" name="テーブル391321" displayName="テーブル391321" ref="A12:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6C4A35CE-5C20-452B-821C-4B89CE16C0EF}" name="テーブル391321" displayName="テーブル391321" ref="A12:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="25">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{048B8763-1FA9-4C48-8453-84284C3B2BE3}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{59AE58CE-D1CB-4FDF-A5AB-D5CA76F30C49}" name="大項目" headerRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{6C6BAA3C-0246-46D6-84DB-26BB4F2340EF}" name="列3" headerRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{2E556FC9-763E-4A55-BD53-58C986393D78}" name="確認内容" headerRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{194901A2-ABD9-4B2D-84E7-CA8C68368861}" name="操作手順" headerRowDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{EC06EF13-D880-45B4-A2DC-3B6F4EABAE92}" name="期待値" headerRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{47330801-3154-48AB-8617-E5809D5D0387}" name="実施日" headerRowDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{C712C3D3-C34A-4837-AE4C-87E8273AB788}" name="実施結果" headerRowDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{033C9D9C-5AB6-4458-BB96-44DC91CD6CC6}" name="備考" headerRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{048B8763-1FA9-4C48-8453-84284C3B2BE3}" name="項目番号" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{59AE58CE-D1CB-4FDF-A5AB-D5CA76F30C49}" name="大項目" headerRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{6C6BAA3C-0246-46D6-84DB-26BB4F2340EF}" name="列3" headerRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{2E556FC9-763E-4A55-BD53-58C986393D78}" name="確認内容" headerRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{194901A2-ABD9-4B2D-84E7-CA8C68368861}" name="操作手順" headerRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{EC06EF13-D880-45B4-A2DC-3B6F4EABAE92}" name="期待値" headerRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{47330801-3154-48AB-8617-E5809D5D0387}" name="実施日" headerRowDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{C712C3D3-C34A-4837-AE4C-87E8273AB788}" name="実施結果" headerRowDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{033C9D9C-5AB6-4458-BB96-44DC91CD6CC6}" name="備考" headerRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="14">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -10152,32 +10559,32 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6434A889-CDC7-4338-A988-2373A1FF57F5}" name="テーブル28" displayName="テーブル28" ref="A7:I8" insertRow="1" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1C5AFB2B-0760-43A5-AA4A-E62CA06794FB}" name="項目番号" dataDxfId="218"/>
-    <tableColumn id="2" xr3:uid="{4BC046F4-64B9-4A07-9960-53465730E599}" name="大項目" dataDxfId="217"/>
-    <tableColumn id="3" xr3:uid="{EF879FB3-BF6D-4B7C-A11D-BAB918435A1F}" name="列3" dataDxfId="216"/>
-    <tableColumn id="4" xr3:uid="{D50ED521-FD6C-4600-877E-8DD9170680E6}" name="確認内容" dataDxfId="215"/>
-    <tableColumn id="5" xr3:uid="{B5A024DA-F644-4FF9-B624-8D50FF77E656}" name="操作手順" dataDxfId="214"/>
-    <tableColumn id="6" xr3:uid="{2A99B0CE-D544-4378-BC92-5B3350E1ABE5}" name="期待値" dataDxfId="213"/>
-    <tableColumn id="7" xr3:uid="{892CD07D-5641-4B7E-B782-C023D4FE91C4}" name="実施日" dataDxfId="212"/>
-    <tableColumn id="8" xr3:uid="{19219D21-4CC4-452A-944E-AA518EDA3B54}" name="実施結果" dataDxfId="211"/>
-    <tableColumn id="9" xr3:uid="{37BA8BFF-2DDE-4309-A6C1-D04E3D53089A}" name="備考" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{1C5AFB2B-0760-43A5-AA4A-E62CA06794FB}" name="項目番号" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{4BC046F4-64B9-4A07-9960-53465730E599}" name="大項目" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{EF879FB3-BF6D-4B7C-A11D-BAB918435A1F}" name="列3" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{D50ED521-FD6C-4600-877E-8DD9170680E6}" name="確認内容" dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{B5A024DA-F644-4FF9-B624-8D50FF77E656}" name="操作手順" dataDxfId="215"/>
+    <tableColumn id="6" xr3:uid="{2A99B0CE-D544-4378-BC92-5B3350E1ABE5}" name="期待値" dataDxfId="214"/>
+    <tableColumn id="7" xr3:uid="{892CD07D-5641-4B7E-B782-C023D4FE91C4}" name="実施日" dataDxfId="213"/>
+    <tableColumn id="8" xr3:uid="{19219D21-4CC4-452A-944E-AA518EDA3B54}" name="実施結果" dataDxfId="212"/>
+    <tableColumn id="9" xr3:uid="{37BA8BFF-2DDE-4309-A6C1-D04E3D53089A}" name="備考" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B13E4BC5-AB2A-433D-A21F-84E412620802}" name="テーブル39" displayName="テーブル39" ref="A9:I9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="209" tableBorderDxfId="208" totalsRowBorderDxfId="207">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B13E4BC5-AB2A-433D-A21F-84E412620802}" name="テーブル39" displayName="テーブル39" ref="A9:I9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="210" tableBorderDxfId="209" totalsRowBorderDxfId="208">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AAB68CDF-4A89-4CBB-8E8E-6214B36452CD}" name="項目番号" headerRowDxfId="206" dataDxfId="205"/>
-    <tableColumn id="2" xr3:uid="{A90DE0AD-460C-4541-8C98-CCC8D998FD93}" name="大項目" headerRowDxfId="204" dataDxfId="203"/>
-    <tableColumn id="3" xr3:uid="{187370F2-5CDC-4814-AD3A-19846FC1E5B8}" name="列3" headerRowDxfId="202" dataDxfId="201"/>
-    <tableColumn id="4" xr3:uid="{B190AF12-FFBB-4BAE-A51D-1CAA5B8ACE7C}" name="確認内容" headerRowDxfId="200" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{66E3E23C-09F6-4AAD-8DB9-13FA9E083F84}" name="操作手順" headerRowDxfId="198" dataDxfId="197"/>
-    <tableColumn id="6" xr3:uid="{68EEC8FA-7FB4-416B-84E0-6285EFD8F5C2}" name="期待値" headerRowDxfId="196" dataDxfId="195"/>
-    <tableColumn id="7" xr3:uid="{AEF51E41-14B1-4B06-BEE0-F53BF8A240E4}" name="実施日" headerRowDxfId="194" dataDxfId="193"/>
-    <tableColumn id="8" xr3:uid="{8E551473-9E5D-4700-9B4A-5373C9B154F9}" name="実施結果" headerRowDxfId="192" dataDxfId="191"/>
-    <tableColumn id="9" xr3:uid="{935E00D1-93D4-452C-B5C1-B89C2A41C95B}" name="備考" headerRowDxfId="190" dataDxfId="189"/>
+    <tableColumn id="1" xr3:uid="{AAB68CDF-4A89-4CBB-8E8E-6214B36452CD}" name="項目番号" headerRowDxfId="207" dataDxfId="206"/>
+    <tableColumn id="2" xr3:uid="{A90DE0AD-460C-4541-8C98-CCC8D998FD93}" name="大項目" headerRowDxfId="205" dataDxfId="204"/>
+    <tableColumn id="3" xr3:uid="{187370F2-5CDC-4814-AD3A-19846FC1E5B8}" name="列3" headerRowDxfId="203" dataDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{B190AF12-FFBB-4BAE-A51D-1CAA5B8ACE7C}" name="確認内容" headerRowDxfId="201" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{66E3E23C-09F6-4AAD-8DB9-13FA9E083F84}" name="操作手順" headerRowDxfId="199" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{68EEC8FA-7FB4-416B-84E0-6285EFD8F5C2}" name="期待値" headerRowDxfId="197" dataDxfId="196"/>
+    <tableColumn id="7" xr3:uid="{AEF51E41-14B1-4B06-BEE0-F53BF8A240E4}" name="実施日" headerRowDxfId="195" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{8E551473-9E5D-4700-9B4A-5373C9B154F9}" name="実施結果" headerRowDxfId="194" dataDxfId="193"/>
+    <tableColumn id="9" xr3:uid="{935E00D1-93D4-452C-B5C1-B89C2A41C95B}" name="備考" headerRowDxfId="192" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10186,32 +10593,32 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85F965DE-BFE9-44A1-8203-9C97445D195F}" name="テーブル22" displayName="テーブル22" ref="A7:I21" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{C4C821FC-9093-447B-86B8-BB896CE8F6DB}" name="列3" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{D8AC028C-A000-4B31-A70E-88EC32F4D447}" name="確認内容" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{1FF0C9C1-F0B2-4FD8-A9CF-CFDD64854E64}" name="操作手順" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{81648DCB-DB01-4FD5-9CFA-D77908665B9D}" name="期待値" dataDxfId="183"/>
-    <tableColumn id="7" xr3:uid="{10F904F3-2194-4F9F-A698-2181ECC170AD}" name="実施日" dataDxfId="182"/>
-    <tableColumn id="8" xr3:uid="{7EFBFD49-13DA-4D47-A1FA-7E8A935D999D}" name="実施結果" dataDxfId="181"/>
-    <tableColumn id="9" xr3:uid="{80D23A8A-0805-43E8-8AAE-F8081DCA6D65}" name="備考" dataDxfId="180"/>
+    <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{C4C821FC-9093-447B-86B8-BB896CE8F6DB}" name="列3" dataDxfId="188"/>
+    <tableColumn id="4" xr3:uid="{D8AC028C-A000-4B31-A70E-88EC32F4D447}" name="確認内容" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{1FF0C9C1-F0B2-4FD8-A9CF-CFDD64854E64}" name="操作手順" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{81648DCB-DB01-4FD5-9CFA-D77908665B9D}" name="期待値" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{10F904F3-2194-4F9F-A698-2181ECC170AD}" name="実施日" dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{7EFBFD49-13DA-4D47-A1FA-7E8A935D999D}" name="実施結果" dataDxfId="183"/>
+    <tableColumn id="9" xr3:uid="{80D23A8A-0805-43E8-8AAE-F8081DCA6D65}" name="備考" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A22:I22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A23:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="181">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="178" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="176"/>
-    <tableColumn id="3" xr3:uid="{2FF70B6E-A1B8-4571-9F44-DA2874BA52C0}" name="列3" headerRowDxfId="175"/>
-    <tableColumn id="4" xr3:uid="{2AF3E51B-1DEA-465B-AFB0-BC6CB20E4F44}" name="確認内容" headerRowDxfId="174"/>
-    <tableColumn id="5" xr3:uid="{CE779E91-8182-4A55-964C-59E625B68FEE}" name="操作手順" headerRowDxfId="173"/>
-    <tableColumn id="6" xr3:uid="{19FE0ED1-C435-4CF2-B709-38DDBFFA50B3}" name="期待値" headerRowDxfId="172"/>
-    <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="171"/>
-    <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="170"/>
-    <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="169"/>
+    <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="180" dataDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{2FF70B6E-A1B8-4571-9F44-DA2874BA52C0}" name="列3" headerRowDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{2AF3E51B-1DEA-465B-AFB0-BC6CB20E4F44}" name="確認内容" headerRowDxfId="176"/>
+    <tableColumn id="5" xr3:uid="{CE779E91-8182-4A55-964C-59E625B68FEE}" name="操作手順" headerRowDxfId="175"/>
+    <tableColumn id="6" xr3:uid="{19FE0ED1-C435-4CF2-B709-38DDBFFA50B3}" name="期待値" headerRowDxfId="174"/>
+    <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="173" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="172"/>
+    <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="171"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10220,32 +10627,32 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCD28B93-BD18-40FE-9EAF-79078CA97AC3}" name="テーブル210" displayName="テーブル210" ref="A7:I43" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24CDBC1C-7B11-4828-8A6C-F49049F89F00}" name="項目番号" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{B34DDAD1-A174-4C30-A755-CB07F4F8DDC3}" name="大項目" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{D85219DC-5119-4103-80CA-73B62A1ADC79}" name="列3" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{7F7602CF-8207-459F-BDD9-3EB9A528188A}" name="確認内容" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{03D2BBB9-EA53-42D7-82FD-606F530BDF6D}" name="操作手順" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{83F451BF-479C-4EBE-81DD-BAE9FFDAB661}" name="期待値" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{87046590-9F73-461E-8631-BD71C0EC994B}" name="実施日" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{094B48BF-1E5A-4845-A02A-322C66BBBEC1}" name="実施結果" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{DDF39B8D-EB48-4FDA-840B-642F03A977FB}" name="備考" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{24CDBC1C-7B11-4828-8A6C-F49049F89F00}" name="項目番号" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{B34DDAD1-A174-4C30-A755-CB07F4F8DDC3}" name="大項目" dataDxfId="169"/>
+    <tableColumn id="3" xr3:uid="{D85219DC-5119-4103-80CA-73B62A1ADC79}" name="列3" dataDxfId="168"/>
+    <tableColumn id="4" xr3:uid="{7F7602CF-8207-459F-BDD9-3EB9A528188A}" name="確認内容" dataDxfId="167"/>
+    <tableColumn id="5" xr3:uid="{03D2BBB9-EA53-42D7-82FD-606F530BDF6D}" name="操作手順" dataDxfId="166"/>
+    <tableColumn id="6" xr3:uid="{83F451BF-479C-4EBE-81DD-BAE9FFDAB661}" name="期待値" dataDxfId="165"/>
+    <tableColumn id="7" xr3:uid="{87046590-9F73-461E-8631-BD71C0EC994B}" name="実施日" dataDxfId="164"/>
+    <tableColumn id="8" xr3:uid="{094B48BF-1E5A-4845-A02A-322C66BBBEC1}" name="実施結果" dataDxfId="163"/>
+    <tableColumn id="9" xr3:uid="{DDF39B8D-EB48-4FDA-840B-642F03A977FB}" name="備考" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81091360-8C2A-4D17-858F-88DB26B13B67}" name="テーブル311" displayName="テーブル311" ref="A44:I46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81091360-8C2A-4D17-858F-88DB26B13B67}" name="テーブル311" displayName="テーブル311" ref="A44:I46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="161">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B0F26ADC-DA32-48BD-9910-7AE5D6BF88D4}" name="項目番号" headerRowDxfId="158" dataDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{9BE255DB-5913-47C6-972A-EDDA92DE4319}" name="大項目" headerRowDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{0D0121E7-656A-481D-AC74-4AE410724CD7}" name="列3" headerRowDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{A664A130-676B-48BD-8829-FB93D5808DC4}" name="確認内容" headerRowDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{DBB9659B-3BCC-49A6-9BF8-5FC716FD0BFB}" name="操作手順" headerRowDxfId="153"/>
-    <tableColumn id="6" xr3:uid="{A2E8AC67-F563-441E-A75C-54C16B05B664}" name="期待値" headerRowDxfId="152"/>
-    <tableColumn id="7" xr3:uid="{FFEA1C31-6656-4F09-836B-3724F04D745B}" name="実施日" headerRowDxfId="151"/>
-    <tableColumn id="8" xr3:uid="{EBCC2C0B-E577-4203-8457-462534C53556}" name="実施結果" headerRowDxfId="150"/>
-    <tableColumn id="9" xr3:uid="{C4CA7A9B-9FBA-4EF3-8DDB-C63AD50C5211}" name="備考" headerRowDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{B0F26ADC-DA32-48BD-9910-7AE5D6BF88D4}" name="項目番号" headerRowDxfId="160" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{9BE255DB-5913-47C6-972A-EDDA92DE4319}" name="大項目" headerRowDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{0D0121E7-656A-481D-AC74-4AE410724CD7}" name="列3" headerRowDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{A664A130-676B-48BD-8829-FB93D5808DC4}" name="確認内容" headerRowDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{DBB9659B-3BCC-49A6-9BF8-5FC716FD0BFB}" name="操作手順" headerRowDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{A2E8AC67-F563-441E-A75C-54C16B05B664}" name="期待値" headerRowDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{FFEA1C31-6656-4F09-836B-3724F04D745B}" name="実施日" headerRowDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{EBCC2C0B-E577-4203-8457-462534C53556}" name="実施結果" headerRowDxfId="152"/>
+    <tableColumn id="9" xr3:uid="{C4CA7A9B-9FBA-4EF3-8DDB-C63AD50C5211}" name="備考" headerRowDxfId="151"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10254,15 +10661,15 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9B75BF2-C8DA-4058-AA78-26607E2B007D}" name="テーブル2812" displayName="テーブル2812" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{57144C7C-F54C-4A5B-9642-7142CA235963}" name="項目番号" dataDxfId="148"/>
-    <tableColumn id="2" xr3:uid="{D62C9593-BA1E-4CAF-B75A-B4CA22EF8EE3}" name="大項目" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{F02BCF85-9CC7-4AE1-935F-459136CCD965}" name="列3" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{D6C449BB-0196-4CD6-B67D-7EAA014779AB}" name="確認内容" dataDxfId="145"/>
-    <tableColumn id="5" xr3:uid="{8A9CE791-1F13-46FA-9AE0-9C95695796DE}" name="操作手順" dataDxfId="144"/>
-    <tableColumn id="6" xr3:uid="{31F84205-75F9-440F-A157-9FBDF605D694}" name="期待値" dataDxfId="143"/>
-    <tableColumn id="7" xr3:uid="{C47C7C94-57F8-4128-A4DB-178CA39D6D8F}" name="実施日" dataDxfId="142"/>
-    <tableColumn id="8" xr3:uid="{D628D4FC-CE73-41B3-9F81-2AC4C9E211FC}" name="実施結果" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{061CAF32-C932-484C-92C2-E439B92B6A83}" name="備考" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{57144C7C-F54C-4A5B-9642-7142CA235963}" name="項目番号" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{D62C9593-BA1E-4CAF-B75A-B4CA22EF8EE3}" name="大項目" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{F02BCF85-9CC7-4AE1-935F-459136CCD965}" name="列3" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{D6C449BB-0196-4CD6-B67D-7EAA014779AB}" name="確認内容" dataDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{8A9CE791-1F13-46FA-9AE0-9C95695796DE}" name="操作手順" dataDxfId="146"/>
+    <tableColumn id="6" xr3:uid="{31F84205-75F9-440F-A157-9FBDF605D694}" name="期待値" dataDxfId="145"/>
+    <tableColumn id="7" xr3:uid="{C47C7C94-57F8-4128-A4DB-178CA39D6D8F}" name="実施日" dataDxfId="144"/>
+    <tableColumn id="8" xr3:uid="{D628D4FC-CE73-41B3-9F81-2AC4C9E211FC}" name="実施結果" dataDxfId="143"/>
+    <tableColumn id="9" xr3:uid="{061CAF32-C932-484C-92C2-E439B92B6A83}" name="備考" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10587,8 +10994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10639,7 +11046,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45841</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10694,7 +11101,7 @@
         <v>83</v>
       </c>
       <c r="G8" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -10730,25 +11137,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="G11" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
@@ -10779,23 +11188,23 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -10841,19 +11250,19 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>250</v>
+        <v>406</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="G18" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -10862,7 +11271,9 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -10884,23 +11295,23 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>245</v>
+        <v>391</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="G21" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -10939,26 +11350,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>393</v>
       </c>
       <c r="G25" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -10988,26 +11399,26 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>392</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="G28" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -11037,23 +11448,23 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G31" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>73</v>
@@ -11066,7 +11477,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -11093,16 +11504,16 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G34" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>73</v>
@@ -11115,7 +11526,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -11128,7 +11539,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -11140,26 +11551,26 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G37" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11168,13 +11579,13 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11183,13 +11594,13 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11198,7 +11609,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -11214,16 +11625,16 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G41" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>73</v>
@@ -11236,7 +11647,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -11249,7 +11660,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -11262,7 +11673,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -11281,20 +11692,28 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="2">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11303,7 +11722,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -11322,20 +11741,28 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11344,7 +11771,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -11357,7 +11784,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -11376,20 +11803,28 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="G53" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11398,7 +11833,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -11411,7 +11846,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -11424,7 +11859,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -13118,10 +13553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED2CC-32C6-4049-B976-1FB025BBAE22}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I31"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13172,7 +13607,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13222,29 +13657,29 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G9" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13260,23 +13695,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="G11" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -13289,7 +13724,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -13309,26 +13744,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>322</v>
+        <v>386</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -13338,7 +13773,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -13351,7 +13786,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -13371,29 +13806,29 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G18" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13402,13 +13837,13 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13417,7 +13852,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -13425,20 +13860,28 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>346</v>
+        <v>323</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13446,8 +13889,8 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="11" t="s">
-        <v>351</v>
+      <c r="E22" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -13459,27 +13902,35 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>348</v>
+        <v>333</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13487,8 +13938,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="11" t="s">
-        <v>349</v>
+      <c r="E25" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -13500,8 +13951,8 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="11" t="s">
-        <v>350</v>
+      <c r="E26" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -13513,27 +13964,35 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13542,7 +14001,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -13554,8 +14013,8 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="11" t="s">
-        <v>353</v>
+      <c r="E30" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -13567,13 +14026,273 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="11" t="s">
-        <v>354</v>
+      <c r="E31" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13590,10 +14309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:I44"/>
+    <sheetView topLeftCell="D13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13644,7 +14363,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13690,16 +14409,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G8" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>74</v>
@@ -13712,7 +14431,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -13735,20 +14454,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="G11" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>74</v>
@@ -13761,7 +14480,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -13774,7 +14493,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -13801,22 +14520,22 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="G15" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13838,7 +14557,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -13851,7 +14570,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -13870,107 +14589,115 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="G20" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G24" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13978,48 +14705,48 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14028,7 +14755,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -14040,48 +14767,48 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G31" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14090,7 +14817,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -14102,7 +14829,9 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -14112,30 +14841,36 @@
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14143,7 +14878,9 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -14153,30 +14890,36 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14184,8 +14927,8 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="11" t="s">
-        <v>362</v>
+      <c r="E40" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -14197,7 +14940,9 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -14207,30 +14952,36 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14239,7 +14990,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -14247,9 +14998,94 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" t="s">
-        <v>359</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45854</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14268,8 +15104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9DF4C-BD12-4AC6-9AAC-936DFC9AAD8B}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14320,7 +15156,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45841</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14375,7 +15211,7 @@
         <v>233</v>
       </c>
       <c r="G8" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -14417,21 +15253,23 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G11" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
@@ -14464,21 +15302,23 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
@@ -14511,21 +15351,23 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G17" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
@@ -14558,19 +15400,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G20" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -14605,19 +15447,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G23" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -14652,21 +15494,23 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G26" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
@@ -14699,21 +15543,23 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G29" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
@@ -14746,16 +15592,16 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G32" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>74</v>
@@ -14793,21 +15639,23 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G35" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
@@ -14840,19 +15688,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G38" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -14887,16 +15735,16 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G41" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>74</v>
@@ -14945,16 +15793,16 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G45" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>73</v>
@@ -14967,7 +15815,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -14994,16 +15842,16 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G48" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>73</v>
@@ -15041,16 +15889,16 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G51" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>73</v>
@@ -15074,8 +15922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793BB9D-553F-4530-A4BF-72E616C75186}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15126,12 +15974,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -15172,16 +16020,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G8" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -15194,7 +16042,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -15217,25 +16065,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G11" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
@@ -15264,23 +16114,23 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G14" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -15311,25 +16161,27 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="G17" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
@@ -15358,25 +16210,27 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="G20" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
@@ -15405,20 +16259,20 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G23" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>74</v>
@@ -15452,20 +16306,20 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G26" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>74</v>
@@ -15499,23 +16353,23 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G29" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -15546,20 +16400,20 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G32" s="3">
-        <v>45842</v>
+        <v>45854</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>74</v>
